--- a/Base/Teams/Lions/Distributions.xlsx
+++ b/Base/Teams/Lions/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8221928627578491, 0.975612496340991, 0.6640848162195094, 2.4186905217197165)</t>
-  </si>
-  <si>
-    <t>NIG(0.8737162315828351, 0.6233052027496254, 4.115579231720845, 4.957769296681121)</t>
-  </si>
-  <si>
-    <t>MIE(20.518257762580227, 5.001400983305942, -11.125746572770925, 10.465900768994807)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4798951121561559, 1.1927592770857656, 1.9430180538000235, 4.861265621399833)</t>
+    <t>JSU(-0.8415878686863555, 1.0101615247787215, 0.6585763923496767, 2.499121682956182)</t>
+  </si>
+  <si>
+    <t>NIG(0.8258016321049033, 0.5857586405327566, 4.497054452154432, 4.8708672604268655)</t>
+  </si>
+  <si>
+    <t>MIE(6.877818745104607, 4.297349092046274, -7.093176424555315, 9.215903763746997)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4838472377302376, 1.2600346295724658, 1.5466732329853992, 5.524938060679077)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Lions/Distributions.xlsx
+++ b/Base/Teams/Lions/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8415878686863555, 1.0101615247787215, 0.6585763923496767, 2.499121682956182)</t>
-  </si>
-  <si>
-    <t>NIG(0.8258016321049033, 0.5857586405327566, 4.497054452154432, 4.8708672604268655)</t>
-  </si>
-  <si>
-    <t>MIE(6.877818745104607, 4.297349092046274, -7.093176424555315, 9.215903763746997)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4838472377302376, 1.2600346295724658, 1.5466732329853992, 5.524938060679077)</t>
+    <t>JSU(-0.8038198253328799, 1.013021993066132, 0.8101406104434412, 2.5904784035739254)</t>
+  </si>
+  <si>
+    <t>NIG(0.8812567081071281, 0.6102771038003127, 4.502810053177122, 5.0309814430203765)</t>
+  </si>
+  <si>
+    <t>MIE(7.261820786819429, 4.3597126760473985, -7.277666547697973, 9.317270335800927)</t>
+  </si>
+  <si>
+    <t>NIG(1.443837055104372, 1.189431416004987, 3.7117874615821096, 6.010673505955795)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Lions/Distributions.xlsx
+++ b/Base/Teams/Lions/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8038198253328799, 1.013021993066132, 0.8101406104434412, 2.5904784035739254)</t>
-  </si>
-  <si>
-    <t>NIG(0.8812567081071281, 0.6102771038003127, 4.502810053177122, 5.0309814430203765)</t>
-  </si>
-  <si>
-    <t>MIE(7.261820786819429, 4.3597126760473985, -7.277666547697973, 9.317270335800927)</t>
-  </si>
-  <si>
-    <t>NIG(1.443837055104372, 1.189431416004987, 3.7117874615821096, 6.010673505955795)</t>
+    <t>JSU(-0.8160485575245678, 1.0609090841005897, 0.7535327594610018, 2.7435104765436975)</t>
+  </si>
+  <si>
+    <t>NIG(0.9182417664218405, 0.6388138035950721, 4.407928337252409, 5.05949476549884)</t>
+  </si>
+  <si>
+    <t>MIE(7.446918536272837, 4.2549191529167505, -7.104222703372565, 8.936605002541208)</t>
+  </si>
+  <si>
+    <t>NIG(1.6129452010259917, 1.302384818934952, 3.5659515727846722, 6.395753651967115)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Lions/Distributions.xlsx
+++ b/Base/Teams/Lions/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8160485575245678, 1.0609090841005897, 0.7535327594610018, 2.7435104765436975)</t>
-  </si>
-  <si>
-    <t>NIG(0.9182417664218405, 0.6388138035950721, 4.407928337252409, 5.05949476549884)</t>
-  </si>
-  <si>
-    <t>MIE(7.446918536272837, 4.2549191529167505, -7.104222703372565, 8.936605002541208)</t>
-  </si>
-  <si>
-    <t>NIG(1.6129452010259917, 1.302384818934952, 3.5659515727846722, 6.395753651967115)</t>
+    <t>JSU(-0.8333010676406252, 1.032645219681061, 0.6420169025845999, 2.6108000046005815)</t>
+  </si>
+  <si>
+    <t>NIG(0.9348143054394998, 0.6573978112080057, 4.431484423667587, 5.057080539629593)</t>
+  </si>
+  <si>
+    <t>NCT(2.925058423808954, 2.192370767486075, -1.933079655429136, 2.217432491158548)</t>
+  </si>
+  <si>
+    <t>JSU(-1.270267578414953, 1.2257364308782934, 2.6356580812197556, 5.611613241333833)</t>
   </si>
 </sst>
 </file>
